--- a/biology/Botanique/Patata_della_Sila/Patata_della_Sila.xlsx
+++ b/biology/Botanique/Patata_della_Sila/Patata_della_Sila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pomme de terre de la Sila (patata della Sila en italien ou patati da' a Sila en dialecte calabrais) est une production italienne de pomme de terre cultivée sur le plateau de la Sila en Calabre, à une altitude moyenne de 1 200 mètres.
-Elle a fait l'objet en 2007 d'une demande de classement en indication géographique protégée (IGP) auprès des instances européennes[1].
+Elle a fait l'objet en 2007 d'une demande de classement en indication géographique protégée (IGP) auprès des instances européennes.
 Elle fait partie des produits agroalimentaires traditionnels calabrais et est inscrite dans l'albo dei prodotti di montagna (répertoire des produits de montagne).
-Une coopérative agricole, le Consorzio Produttori Patate Altopiano Silano, regroupant 73 producteurs, a été constituée pour assurer la promotion de cette production[2].
+Une coopérative agricole, le Consorzio Produttori Patate Altopiano Silano, regroupant 73 producteurs, a été constituée pour assurer la promotion de cette production.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières attestations de la culture de la pomme de terre de la Sila se trouvent dans la Statistica del Regno di Napoli datée de 1811.
 La culture de la pomme de terre sur le plateau de la Sila est une activité traditionnelle, qui joue un rôle important dans l'économie locale.
@@ -548,7 +562,9 @@
           <t>Conditions à respecter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Variétés
 Plusieurs variétés sont admises dans l'appellation « pomme de terre de La Sila » : 'Agria', 'Désirée', 'Ditta', 'Majestic', 'Marabel', 'Nicola', dont certaines sont d'origine hollandaise ('Agria', 'Désirée').
@@ -559,7 +575,7 @@
 et de Catanzaro :
 Albi, Carlopoli, Cicala, Conflenti, Decollatura, Magisano, Martirano, Martirano Lombardo, Motta Santa Lucia, Serrastretta, Sorbo San Basile, Soveria Mannelli, Taverna.
 Matière sèche
-Le taux de matière sèche doit être au minimum égal à 19 %[3].
+Le taux de matière sèche doit être au minimum égal à 19 %.
 </t>
         </is>
       </c>
@@ -588,7 +604,9 @@
           <t>Folklore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1978, la « fête de la pomme de terre de la Sila » (Sagra della patata della Sila) se déroule à Camigliatello Silano (commune de Spezzano della Sila) courant octobre et depuis 1980, le dernier dimanche d'août, une manifestation folklorico-culinaire centrée sur la pomme de terre de la Sila a lieu à Parenti.
 </t>
